--- a/Data/Cost breakdown .xlsx
+++ b/Data/Cost breakdown .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.tan.2018\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.tan.2018\Documents\GitHub\SMA-Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA737DB-0D77-482E-9841-F20C4BE14160}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551BB58F-16E0-4BE8-91A1-60B8371F216D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8480" yWindow="-280" windowWidth="16920" windowHeight="10540" xr2:uid="{8238280C-0083-4902-A389-7E56DBBD3E7E}"/>
+    <workbookView xWindow="5640" yWindow="0" windowWidth="16920" windowHeight="10540" xr2:uid="{8238280C-0083-4902-A389-7E56DBBD3E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t xml:space="preserve">Advertising </t>
   </si>
@@ -76,6 +76,63 @@
   </si>
   <si>
     <t xml:space="preserve">Food Costs </t>
+  </si>
+  <si>
+    <t>Minced pork $5/kg</t>
+  </si>
+  <si>
+    <t>Egg $0.2</t>
+  </si>
+  <si>
+    <t>Prawn $1.80/100g</t>
+  </si>
+  <si>
+    <t>Enoki $0.5/100g</t>
+  </si>
+  <si>
+    <t>Broccoli $3.5/kg</t>
+  </si>
+  <si>
+    <t>Long bean $2/kg</t>
+  </si>
+  <si>
+    <t>Tomato $3.5/kg</t>
+  </si>
+  <si>
+    <t>Noodle $0.4/100g</t>
+  </si>
+  <si>
+    <t>Meat patty $1/100g</t>
+  </si>
+  <si>
+    <t>Pork ribs $6/kg</t>
+  </si>
+  <si>
+    <t>Lettuce $4/kg</t>
+  </si>
+  <si>
+    <t>Mala minced pork $1.5/100g</t>
+  </si>
+  <si>
+    <t>Chicken soup $4/kg</t>
+  </si>
+  <si>
+    <t>Pork soup $5/kg</t>
+  </si>
+  <si>
+    <t>Chicken wing $8/kg</t>
+  </si>
+  <si>
+    <t>Chicken feet $3/kg</t>
+  </si>
+  <si>
+    <t>Stew chicken soup $3/kg</t>
+  </si>
+  <si>
+    <t>Grilled pork $10/kg</t>
+  </si>
+  <si>
+    <t>Lemongrass chicken $7/kg</t>
   </si>
 </sst>
 </file>
@@ -124,10 +181,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -443,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030A4F56-D702-4D1C-9324-B99E72C768F7}">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,16 +517,16 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>100</v>
       </c>
     </row>
@@ -477,7 +534,7 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>500</v>
       </c>
     </row>
@@ -485,14 +542,14 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="E6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
@@ -512,7 +569,7 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>4000</v>
       </c>
       <c r="G8" t="s">
@@ -523,7 +580,7 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>10000</v>
       </c>
     </row>
@@ -531,7 +588,7 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1000</v>
       </c>
     </row>
@@ -541,6 +598,101 @@
       </c>
       <c r="E11" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
